--- a/Resources/Documents/CitizenTaxi.xlsx
+++ b/Resources/Documents/CitizenTaxi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejer\Documents\Github\Techcollege\Education\Module 6\CitizenTaxi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejer\Documents\Github\Techcollege\Education\Module 6\CitizenTaxi\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A038860-B276-4624-8F4E-48D83FBB2A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719048B1-6A1E-417B-A857-603D72AC980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-4995" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{D5701FEF-667C-407A-91E1-C7B62C9D963E}"/>
+    <workbookView xWindow="-28920" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D5701FEF-667C-407A-91E1-C7B62C9D963E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kravsspec" sheetId="3" r:id="rId1"/>
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB829-7EF3-4323-B00C-E54D52F1FFB2}">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2361,7 @@
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
-      <c r="X7" s="40"/>
+      <c r="X7" s="41"/>
       <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
       <c r="W8" s="41"/>
-      <c r="X8" s="20"/>
+      <c r="X8" s="41"/>
       <c r="Y8" s="24"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
+      <c r="X13" s="18"/>
       <c r="Y13" s="26"/>
     </row>
     <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Resources/Documents/CitizenTaxi.xlsx
+++ b/Resources/Documents/CitizenTaxi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejer\Documents\Github\Techcollege\Education\Module 6\CitizenTaxi\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719048B1-6A1E-417B-A857-603D72AC980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00849DCE-37C9-47F9-9C09-517E647986D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D5701FEF-667C-407A-91E1-C7B62C9D963E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D5701FEF-667C-407A-91E1-C7B62C9D963E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kravsspec" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>Krav Id</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Backend test</t>
   </si>
   <si>
-    <t>Frontend test</t>
-  </si>
-  <si>
     <t>Host &amp; user test</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
   </si>
   <si>
     <t>16/11 til 20/11</t>
-  </si>
-  <si>
-    <t>21/11 til 22/11</t>
   </si>
   <si>
     <t>23/11 til 27/11</t>
@@ -746,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,6 +823,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1209,12 +1211,12 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1254,7 +1256,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1274,7 +1276,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1294,13 +1296,13 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1334,7 +1336,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1354,7 +1356,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1374,7 +1376,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1394,7 +1396,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1414,7 +1416,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1434,7 +1436,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -1454,7 +1456,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -1474,7 +1476,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1494,7 +1496,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>51</v>
@@ -1514,7 +1516,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1534,7 +1536,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -1554,7 +1556,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -1574,7 +1576,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -1712,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EEC40F-AABE-47F4-AD1E-AF9E525F9CEA}">
-  <dimension ref="B1:AG14"/>
+  <dimension ref="B1:AG13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1741,7 @@
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="10">
@@ -1808,67 +1810,67 @@
         <v>77</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="K5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="R5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="U5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
@@ -1876,7 +1878,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
@@ -1904,7 +1906,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="36"/>
@@ -1932,7 +1934,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="20"/>
@@ -1960,7 +1962,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="22"/>
@@ -1988,7 +1990,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="20"/>
@@ -2016,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="22"/>
@@ -2029,9 +2031,9 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -2044,84 +2046,56 @@
         <v>83</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="23"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="26"/>
-    </row>
-    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2133,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB829-7EF3-4323-B00C-E54D52F1FFB2}">
-  <dimension ref="B1:AG14"/>
+  <dimension ref="B1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2134,7 @@
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="10">
@@ -2235,73 +2209,73 @@
         <v>77</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="K5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="N5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="R5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="W5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
@@ -2309,7 +2283,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
@@ -2339,7 +2313,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="36"/>
@@ -2362,14 +2336,14 @@
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
       <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="48"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="20"/>
@@ -2388,18 +2362,18 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="49"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="22"/>
@@ -2429,7 +2403,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="20"/>
@@ -2459,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="22"/>
@@ -2485,94 +2459,64 @@
       <c r="Y11" s="26"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="50"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="24"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="26"/>
-    </row>
-    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
